--- a/Data/New_data.xlsx
+++ b/Data/New_data.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -383,6 +383,146 @@
           <t>1992/93</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1993/94</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1994/95</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1995/96</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1996/97</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1997/98</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1998/99</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1999/00</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2000/01</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2001/02</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2002/03</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2003/04</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2004/05</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2005/06</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2006/07</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2007/08</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2008/09</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2009/10</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2010/11</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2011/12</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2012/13</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2013/14</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2014/15</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>2015/16</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2016/17</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2017/18</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2018/19</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2019/20</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Total_domestic_consumption</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -404,6 +544,90 @@
       <c r="E2">
         <v>2100000</v>
       </c>
+      <c r="F2">
+        <v>1200000</v>
+      </c>
+      <c r="G2">
+        <v>1500000</v>
+      </c>
+      <c r="H2">
+        <v>600000</v>
+      </c>
+      <c r="I2">
+        <v>1200000</v>
+      </c>
+      <c r="J2">
+        <v>2400000</v>
+      </c>
+      <c r="K2">
+        <v>1800000</v>
+      </c>
+      <c r="L2">
+        <v>1200000</v>
+      </c>
+      <c r="M2">
+        <v>1200000</v>
+      </c>
+      <c r="N2">
+        <v>1200000</v>
+      </c>
+      <c r="O2">
+        <v>1200000</v>
+      </c>
+      <c r="P2">
+        <v>900000</v>
+      </c>
+      <c r="Q2">
+        <v>900000</v>
+      </c>
+      <c r="R2">
+        <v>900000</v>
+      </c>
+      <c r="S2">
+        <v>1800000</v>
+      </c>
+      <c r="T2">
+        <v>1800000</v>
+      </c>
+      <c r="U2">
+        <v>1800000</v>
+      </c>
+      <c r="V2">
+        <v>1800000</v>
+      </c>
+      <c r="W2">
+        <v>1800000</v>
+      </c>
+      <c r="X2">
+        <v>1800000</v>
+      </c>
+      <c r="Y2">
+        <v>1800000</v>
+      </c>
+      <c r="Z2">
+        <v>1800000</v>
+      </c>
+      <c r="AA2">
+        <v>1800000</v>
+      </c>
+      <c r="AB2">
+        <v>1800000</v>
+      </c>
+      <c r="AC2">
+        <v>1800000</v>
+      </c>
+      <c r="AD2">
+        <v>1800000</v>
+      </c>
+      <c r="AE2">
+        <v>1800000</v>
+      </c>
+      <c r="AF2">
+        <v>1800000</v>
+      </c>
+      <c r="AG2">
+        <v>46500000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -425,6 +649,90 @@
       <c r="E3">
         <v>1650000</v>
       </c>
+      <c r="F3">
+        <v>1710000</v>
+      </c>
+      <c r="G3">
+        <v>1770000</v>
+      </c>
+      <c r="H3">
+        <v>1830000</v>
+      </c>
+      <c r="I3">
+        <v>1890000</v>
+      </c>
+      <c r="J3">
+        <v>1950000</v>
+      </c>
+      <c r="K3">
+        <v>1980000</v>
+      </c>
+      <c r="L3">
+        <v>2040000</v>
+      </c>
+      <c r="M3">
+        <v>2100000</v>
+      </c>
+      <c r="N3">
+        <v>2190000</v>
+      </c>
+      <c r="O3">
+        <v>2250000</v>
+      </c>
+      <c r="P3">
+        <v>2310000</v>
+      </c>
+      <c r="Q3">
+        <v>2700000</v>
+      </c>
+      <c r="R3">
+        <v>2460000</v>
+      </c>
+      <c r="S3">
+        <v>2520000</v>
+      </c>
+      <c r="T3">
+        <v>2610000</v>
+      </c>
+      <c r="U3">
+        <v>2700000</v>
+      </c>
+      <c r="V3">
+        <v>2760000</v>
+      </c>
+      <c r="W3">
+        <v>2850000</v>
+      </c>
+      <c r="X3">
+        <v>2940000</v>
+      </c>
+      <c r="Y3">
+        <v>3030000</v>
+      </c>
+      <c r="Z3">
+        <v>3120000</v>
+      </c>
+      <c r="AA3">
+        <v>3210000</v>
+      </c>
+      <c r="AB3">
+        <v>3300000</v>
+      </c>
+      <c r="AC3">
+        <v>3420000</v>
+      </c>
+      <c r="AD3">
+        <v>3510000</v>
+      </c>
+      <c r="AE3">
+        <v>3600000</v>
+      </c>
+      <c r="AF3">
+        <v>3660000</v>
+      </c>
+      <c r="AG3">
+        <v>75180000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -446,6 +754,90 @@
       <c r="E4">
         <v>534000000</v>
       </c>
+      <c r="F4">
+        <v>546000000</v>
+      </c>
+      <c r="G4">
+        <v>558000000</v>
+      </c>
+      <c r="H4">
+        <v>606000000</v>
+      </c>
+      <c r="I4">
+        <v>660000000</v>
+      </c>
+      <c r="J4">
+        <v>690000000</v>
+      </c>
+      <c r="K4">
+        <v>732000000</v>
+      </c>
+      <c r="L4">
+        <v>762000000</v>
+      </c>
+      <c r="M4">
+        <v>792000000</v>
+      </c>
+      <c r="N4">
+        <v>815400000</v>
+      </c>
+      <c r="O4">
+        <v>825000000</v>
+      </c>
+      <c r="P4">
+        <v>852000000</v>
+      </c>
+      <c r="Q4">
+        <v>896760000</v>
+      </c>
+      <c r="R4">
+        <v>932280000</v>
+      </c>
+      <c r="S4">
+        <v>979860000</v>
+      </c>
+      <c r="T4">
+        <v>1026600000</v>
+      </c>
+      <c r="U4">
+        <v>1059600000</v>
+      </c>
+      <c r="V4">
+        <v>1103400000</v>
+      </c>
+      <c r="W4">
+        <v>1147920000</v>
+      </c>
+      <c r="X4">
+        <v>1183200000</v>
+      </c>
+      <c r="Y4">
+        <v>1219800000</v>
+      </c>
+      <c r="Z4">
+        <v>1205100000</v>
+      </c>
+      <c r="AA4">
+        <v>1219980000</v>
+      </c>
+      <c r="AB4">
+        <v>1230480000</v>
+      </c>
+      <c r="AC4">
+        <v>1273500000</v>
+      </c>
+      <c r="AD4">
+        <v>1319820000</v>
+      </c>
+      <c r="AE4">
+        <v>1332000000</v>
+      </c>
+      <c r="AF4">
+        <v>1320000000</v>
+      </c>
+      <c r="AG4">
+        <v>27824700000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -466,6 +858,2820 @@
       </c>
       <c r="E5">
         <v>102000</v>
+      </c>
+      <c r="F5">
+        <v>114600</v>
+      </c>
+      <c r="G5">
+        <v>120000</v>
+      </c>
+      <c r="H5">
+        <v>120000</v>
+      </c>
+      <c r="I5">
+        <v>120000</v>
+      </c>
+      <c r="J5">
+        <v>120000</v>
+      </c>
+      <c r="K5">
+        <v>120000</v>
+      </c>
+      <c r="L5">
+        <v>120000</v>
+      </c>
+      <c r="M5">
+        <v>120000</v>
+      </c>
+      <c r="N5">
+        <v>120000</v>
+      </c>
+      <c r="O5">
+        <v>120000</v>
+      </c>
+      <c r="P5">
+        <v>120000</v>
+      </c>
+      <c r="Q5">
+        <v>120000</v>
+      </c>
+      <c r="R5">
+        <v>114360</v>
+      </c>
+      <c r="S5">
+        <v>93600</v>
+      </c>
+      <c r="T5">
+        <v>81420</v>
+      </c>
+      <c r="U5">
+        <v>86100</v>
+      </c>
+      <c r="V5">
+        <v>83940</v>
+      </c>
+      <c r="W5">
+        <v>120000</v>
+      </c>
+      <c r="X5">
+        <v>120000</v>
+      </c>
+      <c r="Y5">
+        <v>120000</v>
+      </c>
+      <c r="Z5">
+        <v>120000</v>
+      </c>
+      <c r="AA5">
+        <v>120000</v>
+      </c>
+      <c r="AB5">
+        <v>120000</v>
+      </c>
+      <c r="AC5">
+        <v>120000</v>
+      </c>
+      <c r="AD5">
+        <v>120000</v>
+      </c>
+      <c r="AE5">
+        <v>120000</v>
+      </c>
+      <c r="AF5">
+        <v>120000</v>
+      </c>
+      <c r="AG5">
+        <v>3412020</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Arabica/Robusta</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>21000000</v>
+      </c>
+      <c r="D6">
+        <v>21000000</v>
+      </c>
+      <c r="E6">
+        <v>21000000</v>
+      </c>
+      <c r="F6">
+        <v>21000000</v>
+      </c>
+      <c r="G6">
+        <v>21000000</v>
+      </c>
+      <c r="H6">
+        <v>21000000</v>
+      </c>
+      <c r="I6">
+        <v>18000000</v>
+      </c>
+      <c r="J6">
+        <v>18000000</v>
+      </c>
+      <c r="K6">
+        <v>18000000</v>
+      </c>
+      <c r="L6">
+        <v>13800000</v>
+      </c>
+      <c r="M6">
+        <v>12000000</v>
+      </c>
+      <c r="N6">
+        <v>12000000</v>
+      </c>
+      <c r="O6">
+        <v>9000000</v>
+      </c>
+      <c r="P6">
+        <v>9000000</v>
+      </c>
+      <c r="Q6">
+        <v>9000000</v>
+      </c>
+      <c r="R6">
+        <v>9000000</v>
+      </c>
+      <c r="S6">
+        <v>9000000</v>
+      </c>
+      <c r="T6">
+        <v>9000000</v>
+      </c>
+      <c r="U6">
+        <v>9000000</v>
+      </c>
+      <c r="V6">
+        <v>9000000</v>
+      </c>
+      <c r="W6">
+        <v>9000000</v>
+      </c>
+      <c r="X6">
+        <v>9000000</v>
+      </c>
+      <c r="Y6">
+        <v>9000000</v>
+      </c>
+      <c r="Z6">
+        <v>9300000</v>
+      </c>
+      <c r="AA6">
+        <v>9300000</v>
+      </c>
+      <c r="AB6">
+        <v>9300000</v>
+      </c>
+      <c r="AC6">
+        <v>9300000</v>
+      </c>
+      <c r="AD6">
+        <v>9300000</v>
+      </c>
+      <c r="AE6">
+        <v>9300000</v>
+      </c>
+      <c r="AF6">
+        <v>8940000</v>
+      </c>
+      <c r="AG6">
+        <v>381540000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Robusta/Arabica</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>74520000</v>
+      </c>
+      <c r="D7">
+        <v>76800000</v>
+      </c>
+      <c r="E7">
+        <v>79140000</v>
+      </c>
+      <c r="F7">
+        <v>81540000</v>
+      </c>
+      <c r="G7">
+        <v>84000000</v>
+      </c>
+      <c r="H7">
+        <v>86580000</v>
+      </c>
+      <c r="I7">
+        <v>89160000</v>
+      </c>
+      <c r="J7">
+        <v>91920000</v>
+      </c>
+      <c r="K7">
+        <v>94680000</v>
+      </c>
+      <c r="L7">
+        <v>97560000</v>
+      </c>
+      <c r="M7">
+        <v>100560000</v>
+      </c>
+      <c r="N7">
+        <v>120000000</v>
+      </c>
+      <c r="O7">
+        <v>106740000</v>
+      </c>
+      <c r="P7">
+        <v>109980000</v>
+      </c>
+      <c r="Q7">
+        <v>120000000</v>
+      </c>
+      <c r="R7">
+        <v>150000000</v>
+      </c>
+      <c r="S7">
+        <v>169980000</v>
+      </c>
+      <c r="T7">
+        <v>199980000</v>
+      </c>
+      <c r="U7">
+        <v>199980000</v>
+      </c>
+      <c r="V7">
+        <v>199980000</v>
+      </c>
+      <c r="W7">
+        <v>199980000</v>
+      </c>
+      <c r="X7">
+        <v>220020000</v>
+      </c>
+      <c r="Y7">
+        <v>234000000</v>
+      </c>
+      <c r="Z7">
+        <v>255000000</v>
+      </c>
+      <c r="AA7">
+        <v>265020000</v>
+      </c>
+      <c r="AB7">
+        <v>273000000</v>
+      </c>
+      <c r="AC7">
+        <v>279000000</v>
+      </c>
+      <c r="AD7">
+        <v>285000000</v>
+      </c>
+      <c r="AE7">
+        <v>288000000</v>
+      </c>
+      <c r="AF7">
+        <v>288360000</v>
+      </c>
+      <c r="AG7">
+        <v>4920480000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Madagascar</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Robusta</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>21000000</v>
+      </c>
+      <c r="D8">
+        <v>18000000</v>
+      </c>
+      <c r="E8">
+        <v>21000000</v>
+      </c>
+      <c r="F8">
+        <v>21600000</v>
+      </c>
+      <c r="G8">
+        <v>9999960</v>
+      </c>
+      <c r="H8">
+        <v>10020000</v>
+      </c>
+      <c r="I8">
+        <v>10020000</v>
+      </c>
+      <c r="J8">
+        <v>10020000</v>
+      </c>
+      <c r="K8">
+        <v>10020000</v>
+      </c>
+      <c r="L8">
+        <v>3360000</v>
+      </c>
+      <c r="M8">
+        <v>5346000</v>
+      </c>
+      <c r="N8">
+        <v>7680000</v>
+      </c>
+      <c r="O8">
+        <v>13020000</v>
+      </c>
+      <c r="P8">
+        <v>19980000</v>
+      </c>
+      <c r="Q8">
+        <v>28020000</v>
+      </c>
+      <c r="R8">
+        <v>28020000</v>
+      </c>
+      <c r="S8">
+        <v>28020000</v>
+      </c>
+      <c r="T8">
+        <v>28020000</v>
+      </c>
+      <c r="U8">
+        <v>28020000</v>
+      </c>
+      <c r="V8">
+        <v>28020000</v>
+      </c>
+      <c r="W8">
+        <v>28020000</v>
+      </c>
+      <c r="X8">
+        <v>27000000</v>
+      </c>
+      <c r="Y8">
+        <v>25800000</v>
+      </c>
+      <c r="Z8">
+        <v>24600000</v>
+      </c>
+      <c r="AA8">
+        <v>23400000</v>
+      </c>
+      <c r="AB8">
+        <v>22200000</v>
+      </c>
+      <c r="AC8">
+        <v>21600000</v>
+      </c>
+      <c r="AD8">
+        <v>21900000</v>
+      </c>
+      <c r="AE8">
+        <v>22500000</v>
+      </c>
+      <c r="AF8">
+        <v>22500000</v>
+      </c>
+      <c r="AG8">
+        <v>588705960</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Malawi</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Arabica</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>120000</v>
+      </c>
+      <c r="D9">
+        <v>120000</v>
+      </c>
+      <c r="E9">
+        <v>120000</v>
+      </c>
+      <c r="F9">
+        <v>120000</v>
+      </c>
+      <c r="G9">
+        <v>120000</v>
+      </c>
+      <c r="H9">
+        <v>120000</v>
+      </c>
+      <c r="I9">
+        <v>120000</v>
+      </c>
+      <c r="J9">
+        <v>120000</v>
+      </c>
+      <c r="K9">
+        <v>120000</v>
+      </c>
+      <c r="L9">
+        <v>60000</v>
+      </c>
+      <c r="M9">
+        <v>60000</v>
+      </c>
+      <c r="N9">
+        <v>60000</v>
+      </c>
+      <c r="O9">
+        <v>60000</v>
+      </c>
+      <c r="P9">
+        <v>60000</v>
+      </c>
+      <c r="Q9">
+        <v>60000</v>
+      </c>
+      <c r="R9">
+        <v>60000</v>
+      </c>
+      <c r="S9">
+        <v>60000</v>
+      </c>
+      <c r="T9">
+        <v>60000</v>
+      </c>
+      <c r="U9">
+        <v>60000</v>
+      </c>
+      <c r="V9">
+        <v>60000</v>
+      </c>
+      <c r="W9">
+        <v>60000</v>
+      </c>
+      <c r="X9">
+        <v>60000</v>
+      </c>
+      <c r="Y9">
+        <v>60000</v>
+      </c>
+      <c r="Z9">
+        <v>60000</v>
+      </c>
+      <c r="AA9">
+        <v>60000</v>
+      </c>
+      <c r="AB9">
+        <v>60000</v>
+      </c>
+      <c r="AC9">
+        <v>60000</v>
+      </c>
+      <c r="AD9">
+        <v>60000</v>
+      </c>
+      <c r="AE9">
+        <v>60000</v>
+      </c>
+      <c r="AF9">
+        <v>60000</v>
+      </c>
+      <c r="AG9">
+        <v>2340000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Papua New Guinea</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Arabica/Robusta</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>180000</v>
+      </c>
+      <c r="D10">
+        <v>180000</v>
+      </c>
+      <c r="E10">
+        <v>180000</v>
+      </c>
+      <c r="F10">
+        <v>120000</v>
+      </c>
+      <c r="G10">
+        <v>120000</v>
+      </c>
+      <c r="H10">
+        <v>120000</v>
+      </c>
+      <c r="I10">
+        <v>120000</v>
+      </c>
+      <c r="J10">
+        <v>120000</v>
+      </c>
+      <c r="K10">
+        <v>60000</v>
+      </c>
+      <c r="L10">
+        <v>120000</v>
+      </c>
+      <c r="M10">
+        <v>120000</v>
+      </c>
+      <c r="N10">
+        <v>120000</v>
+      </c>
+      <c r="O10">
+        <v>120000</v>
+      </c>
+      <c r="P10">
+        <v>120000</v>
+      </c>
+      <c r="Q10">
+        <v>120000</v>
+      </c>
+      <c r="R10">
+        <v>120000</v>
+      </c>
+      <c r="S10">
+        <v>120000</v>
+      </c>
+      <c r="T10">
+        <v>120000</v>
+      </c>
+      <c r="U10">
+        <v>120000</v>
+      </c>
+      <c r="V10">
+        <v>120000</v>
+      </c>
+      <c r="W10">
+        <v>85800</v>
+      </c>
+      <c r="X10">
+        <v>74160</v>
+      </c>
+      <c r="Y10">
+        <v>102660</v>
+      </c>
+      <c r="Z10">
+        <v>122340</v>
+      </c>
+      <c r="AA10">
+        <v>115440</v>
+      </c>
+      <c r="AB10">
+        <v>108000</v>
+      </c>
+      <c r="AC10">
+        <v>120000</v>
+      </c>
+      <c r="AD10">
+        <v>120000</v>
+      </c>
+      <c r="AE10">
+        <v>120000</v>
+      </c>
+      <c r="AF10">
+        <v>120000</v>
+      </c>
+      <c r="AG10">
+        <v>3608400</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Arabica</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>900000</v>
+      </c>
+      <c r="D11">
+        <v>900000</v>
+      </c>
+      <c r="E11">
+        <v>900000</v>
+      </c>
+      <c r="F11">
+        <v>1200000</v>
+      </c>
+      <c r="G11">
+        <v>1200000</v>
+      </c>
+      <c r="H11">
+        <v>1200000</v>
+      </c>
+      <c r="I11">
+        <v>1200000</v>
+      </c>
+      <c r="J11">
+        <v>1200000</v>
+      </c>
+      <c r="K11">
+        <v>1200000</v>
+      </c>
+      <c r="L11">
+        <v>1200000</v>
+      </c>
+      <c r="M11">
+        <v>1200000</v>
+      </c>
+      <c r="N11">
+        <v>1200000</v>
+      </c>
+      <c r="O11">
+        <v>1200000</v>
+      </c>
+      <c r="P11">
+        <v>1200000</v>
+      </c>
+      <c r="Q11">
+        <v>1200000</v>
+      </c>
+      <c r="R11">
+        <v>1200000</v>
+      </c>
+      <c r="S11">
+        <v>1200000</v>
+      </c>
+      <c r="T11">
+        <v>1200000</v>
+      </c>
+      <c r="U11">
+        <v>1200000</v>
+      </c>
+      <c r="V11">
+        <v>1200000</v>
+      </c>
+      <c r="W11">
+        <v>1200000</v>
+      </c>
+      <c r="X11">
+        <v>1200000</v>
+      </c>
+      <c r="Y11">
+        <v>1200000</v>
+      </c>
+      <c r="Z11">
+        <v>1200000</v>
+      </c>
+      <c r="AA11">
+        <v>1200000</v>
+      </c>
+      <c r="AB11">
+        <v>1200000</v>
+      </c>
+      <c r="AC11">
+        <v>1200000</v>
+      </c>
+      <c r="AD11">
+        <v>1200000</v>
+      </c>
+      <c r="AE11">
+        <v>1200000</v>
+      </c>
+      <c r="AF11">
+        <v>1200000</v>
+      </c>
+      <c r="AG11">
+        <v>35100000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Arabica</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>11400000</v>
+      </c>
+      <c r="D12">
+        <v>11400000</v>
+      </c>
+      <c r="E12">
+        <v>12000000</v>
+      </c>
+      <c r="F12">
+        <v>12000000</v>
+      </c>
+      <c r="G12">
+        <v>12000000</v>
+      </c>
+      <c r="H12">
+        <v>12000000</v>
+      </c>
+      <c r="I12">
+        <v>12000000</v>
+      </c>
+      <c r="J12">
+        <v>12000000</v>
+      </c>
+      <c r="K12">
+        <v>12000000</v>
+      </c>
+      <c r="L12">
+        <v>12000000</v>
+      </c>
+      <c r="M12">
+        <v>12000000</v>
+      </c>
+      <c r="N12">
+        <v>12000000</v>
+      </c>
+      <c r="O12">
+        <v>13200000</v>
+      </c>
+      <c r="P12">
+        <v>13200000</v>
+      </c>
+      <c r="Q12">
+        <v>13200000</v>
+      </c>
+      <c r="R12">
+        <v>13200000</v>
+      </c>
+      <c r="S12">
+        <v>13200000</v>
+      </c>
+      <c r="T12">
+        <v>13200000</v>
+      </c>
+      <c r="U12">
+        <v>15000000</v>
+      </c>
+      <c r="V12">
+        <v>15000000</v>
+      </c>
+      <c r="W12">
+        <v>15000000</v>
+      </c>
+      <c r="X12">
+        <v>15000000</v>
+      </c>
+      <c r="Y12">
+        <v>15000000</v>
+      </c>
+      <c r="Z12">
+        <v>15000000</v>
+      </c>
+      <c r="AA12">
+        <v>15000000</v>
+      </c>
+      <c r="AB12">
+        <v>15000000</v>
+      </c>
+      <c r="AC12">
+        <v>15000000</v>
+      </c>
+      <c r="AD12">
+        <v>15000000</v>
+      </c>
+      <c r="AE12">
+        <v>15000000</v>
+      </c>
+      <c r="AF12">
+        <v>15000000</v>
+      </c>
+      <c r="AG12">
+        <v>402000000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Arabica</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>60000</v>
+      </c>
+      <c r="D13">
+        <v>60000</v>
+      </c>
+      <c r="E13">
+        <v>60000</v>
+      </c>
+      <c r="F13">
+        <v>60000</v>
+      </c>
+      <c r="G13">
+        <v>60000</v>
+      </c>
+      <c r="H13">
+        <v>60000</v>
+      </c>
+      <c r="I13">
+        <v>60000</v>
+      </c>
+      <c r="J13">
+        <v>180000</v>
+      </c>
+      <c r="K13">
+        <v>180000</v>
+      </c>
+      <c r="L13">
+        <v>120000</v>
+      </c>
+      <c r="M13">
+        <v>120000</v>
+      </c>
+      <c r="N13">
+        <v>120000</v>
+      </c>
+      <c r="O13">
+        <v>19980</v>
+      </c>
+      <c r="P13">
+        <v>19980</v>
+      </c>
+      <c r="Q13">
+        <v>60000</v>
+      </c>
+      <c r="R13">
+        <v>60000</v>
+      </c>
+      <c r="S13">
+        <v>60000</v>
+      </c>
+      <c r="T13">
+        <v>60000</v>
+      </c>
+      <c r="U13">
+        <v>60000</v>
+      </c>
+      <c r="V13">
+        <v>60000</v>
+      </c>
+      <c r="W13">
+        <v>60000</v>
+      </c>
+      <c r="X13">
+        <v>60000</v>
+      </c>
+      <c r="Y13">
+        <v>60000</v>
+      </c>
+      <c r="Z13">
+        <v>60000</v>
+      </c>
+      <c r="AA13">
+        <v>60000</v>
+      </c>
+      <c r="AB13">
+        <v>60000</v>
+      </c>
+      <c r="AC13">
+        <v>60000</v>
+      </c>
+      <c r="AD13">
+        <v>60000</v>
+      </c>
+      <c r="AE13">
+        <v>60000</v>
+      </c>
+      <c r="AF13">
+        <v>60000</v>
+      </c>
+      <c r="AG13">
+        <v>2139960</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Timor-Leste</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Arabica</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>29400</v>
+      </c>
+      <c r="X14">
+        <v>29400</v>
+      </c>
+      <c r="Y14">
+        <v>29400</v>
+      </c>
+      <c r="Z14">
+        <v>29400</v>
+      </c>
+      <c r="AA14">
+        <v>29400</v>
+      </c>
+      <c r="AB14">
+        <v>29400</v>
+      </c>
+      <c r="AC14">
+        <v>29400</v>
+      </c>
+      <c r="AD14">
+        <v>29400</v>
+      </c>
+      <c r="AE14">
+        <v>29400</v>
+      </c>
+      <c r="AF14">
+        <v>29400</v>
+      </c>
+      <c r="AG14">
+        <v>294000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Zimbabwe</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Arabica</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>480000</v>
+      </c>
+      <c r="D15">
+        <v>480000</v>
+      </c>
+      <c r="E15">
+        <v>480000</v>
+      </c>
+      <c r="F15">
+        <v>499980</v>
+      </c>
+      <c r="G15">
+        <v>499980</v>
+      </c>
+      <c r="H15">
+        <v>396000</v>
+      </c>
+      <c r="I15">
+        <v>240000</v>
+      </c>
+      <c r="J15">
+        <v>240000</v>
+      </c>
+      <c r="K15">
+        <v>240000</v>
+      </c>
+      <c r="L15">
+        <v>240000</v>
+      </c>
+      <c r="M15">
+        <v>240000</v>
+      </c>
+      <c r="N15">
+        <v>240000</v>
+      </c>
+      <c r="O15">
+        <v>240000</v>
+      </c>
+      <c r="P15">
+        <v>240000</v>
+      </c>
+      <c r="Q15">
+        <v>240000</v>
+      </c>
+      <c r="R15">
+        <v>240000</v>
+      </c>
+      <c r="S15">
+        <v>240000</v>
+      </c>
+      <c r="T15">
+        <v>240000</v>
+      </c>
+      <c r="U15">
+        <v>240000</v>
+      </c>
+      <c r="V15">
+        <v>240000</v>
+      </c>
+      <c r="W15">
+        <v>240000</v>
+      </c>
+      <c r="X15">
+        <v>240000</v>
+      </c>
+      <c r="Y15">
+        <v>240000</v>
+      </c>
+      <c r="Z15">
+        <v>240000</v>
+      </c>
+      <c r="AA15">
+        <v>240000</v>
+      </c>
+      <c r="AB15">
+        <v>240000</v>
+      </c>
+      <c r="AC15">
+        <v>240000</v>
+      </c>
+      <c r="AD15">
+        <v>240000</v>
+      </c>
+      <c r="AE15">
+        <v>240000</v>
+      </c>
+      <c r="AF15">
+        <v>240000</v>
+      </c>
+      <c r="AG15">
+        <v>8595960</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Congo</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Robusta</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>180000</v>
+      </c>
+      <c r="D16">
+        <v>160020</v>
+      </c>
+      <c r="E16">
+        <v>160020</v>
+      </c>
+      <c r="F16">
+        <v>180000</v>
+      </c>
+      <c r="G16">
+        <v>180000</v>
+      </c>
+      <c r="H16">
+        <v>180000</v>
+      </c>
+      <c r="I16">
+        <v>180000</v>
+      </c>
+      <c r="J16">
+        <v>180000</v>
+      </c>
+      <c r="K16">
+        <v>180000</v>
+      </c>
+      <c r="L16">
+        <v>180000</v>
+      </c>
+      <c r="M16">
+        <v>180000</v>
+      </c>
+      <c r="N16">
+        <v>180000</v>
+      </c>
+      <c r="O16">
+        <v>180000</v>
+      </c>
+      <c r="P16">
+        <v>180000</v>
+      </c>
+      <c r="Q16">
+        <v>180000</v>
+      </c>
+      <c r="R16">
+        <v>180000</v>
+      </c>
+      <c r="S16">
+        <v>180000</v>
+      </c>
+      <c r="T16">
+        <v>180000</v>
+      </c>
+      <c r="U16">
+        <v>180000</v>
+      </c>
+      <c r="V16">
+        <v>180000</v>
+      </c>
+      <c r="W16">
+        <v>180000</v>
+      </c>
+      <c r="X16">
+        <v>180000</v>
+      </c>
+      <c r="Y16">
+        <v>180000</v>
+      </c>
+      <c r="Z16">
+        <v>180000</v>
+      </c>
+      <c r="AA16">
+        <v>180000</v>
+      </c>
+      <c r="AB16">
+        <v>180000</v>
+      </c>
+      <c r="AC16">
+        <v>180000</v>
+      </c>
+      <c r="AD16">
+        <v>180000</v>
+      </c>
+      <c r="AE16">
+        <v>180000</v>
+      </c>
+      <c r="AF16">
+        <v>180000</v>
+      </c>
+      <c r="AG16">
+        <v>5360040</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Arabica</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>12780000</v>
+      </c>
+      <c r="D17">
+        <v>12780000</v>
+      </c>
+      <c r="E17">
+        <v>11700000</v>
+      </c>
+      <c r="F17">
+        <v>11646000</v>
+      </c>
+      <c r="G17">
+        <v>11640000</v>
+      </c>
+      <c r="H17">
+        <v>11640000</v>
+      </c>
+      <c r="I17">
+        <v>11340000</v>
+      </c>
+      <c r="J17">
+        <v>11700000</v>
+      </c>
+      <c r="K17">
+        <v>12000000</v>
+      </c>
+      <c r="L17">
+        <v>12000000</v>
+      </c>
+      <c r="M17">
+        <v>12780000</v>
+      </c>
+      <c r="N17">
+        <v>13200000</v>
+      </c>
+      <c r="O17">
+        <v>13440000</v>
+      </c>
+      <c r="P17">
+        <v>13440000</v>
+      </c>
+      <c r="Q17">
+        <v>13440000</v>
+      </c>
+      <c r="R17">
+        <v>13440000</v>
+      </c>
+      <c r="S17">
+        <v>13440000</v>
+      </c>
+      <c r="T17">
+        <v>13440000</v>
+      </c>
+      <c r="U17">
+        <v>13200000</v>
+      </c>
+      <c r="V17">
+        <v>13200000</v>
+      </c>
+      <c r="W17">
+        <v>13200000</v>
+      </c>
+      <c r="X17">
+        <v>13200000</v>
+      </c>
+      <c r="Y17">
+        <v>13200000</v>
+      </c>
+      <c r="Z17">
+        <v>13200000</v>
+      </c>
+      <c r="AA17">
+        <v>13200000</v>
+      </c>
+      <c r="AB17">
+        <v>13200000</v>
+      </c>
+      <c r="AC17">
+        <v>13200000</v>
+      </c>
+      <c r="AD17">
+        <v>13200000</v>
+      </c>
+      <c r="AE17">
+        <v>13200000</v>
+      </c>
+      <c r="AF17">
+        <v>12960000</v>
+      </c>
+      <c r="AG17">
+        <v>384006000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Dominican Republic</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Arabica/Robusta</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>19200000</v>
+      </c>
+      <c r="D18">
+        <v>19200000</v>
+      </c>
+      <c r="E18">
+        <v>19200000</v>
+      </c>
+      <c r="F18">
+        <v>19200000</v>
+      </c>
+      <c r="G18">
+        <v>19800000</v>
+      </c>
+      <c r="H18">
+        <v>21000000</v>
+      </c>
+      <c r="I18">
+        <v>19500000</v>
+      </c>
+      <c r="J18">
+        <v>19500000</v>
+      </c>
+      <c r="K18">
+        <v>19500000</v>
+      </c>
+      <c r="L18">
+        <v>19500000</v>
+      </c>
+      <c r="M18">
+        <v>19500000</v>
+      </c>
+      <c r="N18">
+        <v>20411880</v>
+      </c>
+      <c r="O18">
+        <v>20411880</v>
+      </c>
+      <c r="P18">
+        <v>20400000</v>
+      </c>
+      <c r="Q18">
+        <v>22679880</v>
+      </c>
+      <c r="R18">
+        <v>22679880</v>
+      </c>
+      <c r="S18">
+        <v>22679880</v>
+      </c>
+      <c r="T18">
+        <v>22680000</v>
+      </c>
+      <c r="U18">
+        <v>22680000</v>
+      </c>
+      <c r="V18">
+        <v>22680000</v>
+      </c>
+      <c r="W18">
+        <v>22680000</v>
+      </c>
+      <c r="X18">
+        <v>22680000</v>
+      </c>
+      <c r="Y18">
+        <v>22680000</v>
+      </c>
+      <c r="Z18">
+        <v>22999980</v>
+      </c>
+      <c r="AA18">
+        <v>23280000</v>
+      </c>
+      <c r="AB18">
+        <v>23280000</v>
+      </c>
+      <c r="AC18">
+        <v>23400000</v>
+      </c>
+      <c r="AD18">
+        <v>23400000</v>
+      </c>
+      <c r="AE18">
+        <v>23400000</v>
+      </c>
+      <c r="AF18">
+        <v>22620000</v>
+      </c>
+      <c r="AG18">
+        <v>642823380</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Haiti</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Arabica</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>13200000</v>
+      </c>
+      <c r="D19">
+        <v>19800000</v>
+      </c>
+      <c r="E19">
+        <v>19800000</v>
+      </c>
+      <c r="F19">
+        <v>19800000</v>
+      </c>
+      <c r="G19">
+        <v>19800000</v>
+      </c>
+      <c r="H19">
+        <v>19800000</v>
+      </c>
+      <c r="I19">
+        <v>19800000</v>
+      </c>
+      <c r="J19">
+        <v>19800000</v>
+      </c>
+      <c r="K19">
+        <v>19800000</v>
+      </c>
+      <c r="L19">
+        <v>20400000</v>
+      </c>
+      <c r="M19">
+        <v>20400000</v>
+      </c>
+      <c r="N19">
+        <v>20400000</v>
+      </c>
+      <c r="O19">
+        <v>20400000</v>
+      </c>
+      <c r="P19">
+        <v>20400000</v>
+      </c>
+      <c r="Q19">
+        <v>20400000</v>
+      </c>
+      <c r="R19">
+        <v>20400000</v>
+      </c>
+      <c r="S19">
+        <v>20400000</v>
+      </c>
+      <c r="T19">
+        <v>20400000</v>
+      </c>
+      <c r="U19">
+        <v>20400000</v>
+      </c>
+      <c r="V19">
+        <v>20400000</v>
+      </c>
+      <c r="W19">
+        <v>20400000</v>
+      </c>
+      <c r="X19">
+        <v>20400000</v>
+      </c>
+      <c r="Y19">
+        <v>20400000</v>
+      </c>
+      <c r="Z19">
+        <v>20400000</v>
+      </c>
+      <c r="AA19">
+        <v>20400000</v>
+      </c>
+      <c r="AB19">
+        <v>20400000</v>
+      </c>
+      <c r="AC19">
+        <v>20400000</v>
+      </c>
+      <c r="AD19">
+        <v>20400000</v>
+      </c>
+      <c r="AE19">
+        <v>20700000</v>
+      </c>
+      <c r="AF19">
+        <v>20700000</v>
+      </c>
+      <c r="AG19">
+        <v>600600000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Robusta/Arabica</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>43200000</v>
+      </c>
+      <c r="D20">
+        <v>45000000</v>
+      </c>
+      <c r="E20">
+        <v>45000000</v>
+      </c>
+      <c r="F20">
+        <v>46200000</v>
+      </c>
+      <c r="G20">
+        <v>47400000</v>
+      </c>
+      <c r="H20">
+        <v>48600000</v>
+      </c>
+      <c r="I20">
+        <v>49860000</v>
+      </c>
+      <c r="J20">
+        <v>51180000</v>
+      </c>
+      <c r="K20">
+        <v>48600000</v>
+      </c>
+      <c r="L20">
+        <v>51720000</v>
+      </c>
+      <c r="M20">
+        <v>49200000</v>
+      </c>
+      <c r="N20">
+        <v>49260000</v>
+      </c>
+      <c r="O20">
+        <v>49740000</v>
+      </c>
+      <c r="P20">
+        <v>55020000</v>
+      </c>
+      <c r="Q20">
+        <v>61200000</v>
+      </c>
+      <c r="R20">
+        <v>62400000</v>
+      </c>
+      <c r="S20">
+        <v>63600000</v>
+      </c>
+      <c r="T20">
+        <v>63600000</v>
+      </c>
+      <c r="U20">
+        <v>103200000</v>
+      </c>
+      <c r="V20">
+        <v>109200000</v>
+      </c>
+      <c r="W20">
+        <v>127500000</v>
+      </c>
+      <c r="X20">
+        <v>130500000</v>
+      </c>
+      <c r="Y20">
+        <v>139500000</v>
+      </c>
+      <c r="Z20">
+        <v>153000000</v>
+      </c>
+      <c r="AA20">
+        <v>168000000</v>
+      </c>
+      <c r="AB20">
+        <v>180000000</v>
+      </c>
+      <c r="AC20">
+        <v>181800000</v>
+      </c>
+      <c r="AD20">
+        <v>190800000</v>
+      </c>
+      <c r="AE20">
+        <v>198000000</v>
+      </c>
+      <c r="AF20">
+        <v>195000000</v>
+      </c>
+      <c r="AG20">
+        <v>2807280000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Tanzania</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Arabica/Robusta</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>240000</v>
+      </c>
+      <c r="D21">
+        <v>210000</v>
+      </c>
+      <c r="E21">
+        <v>1152000</v>
+      </c>
+      <c r="F21">
+        <v>1050000</v>
+      </c>
+      <c r="G21">
+        <v>1050000</v>
+      </c>
+      <c r="H21">
+        <v>816000</v>
+      </c>
+      <c r="I21">
+        <v>996000</v>
+      </c>
+      <c r="J21">
+        <v>1020000</v>
+      </c>
+      <c r="K21">
+        <v>1020000</v>
+      </c>
+      <c r="L21">
+        <v>840000</v>
+      </c>
+      <c r="M21">
+        <v>900000</v>
+      </c>
+      <c r="N21">
+        <v>900000</v>
+      </c>
+      <c r="O21">
+        <v>900000</v>
+      </c>
+      <c r="P21">
+        <v>1620000</v>
+      </c>
+      <c r="Q21">
+        <v>2220000</v>
+      </c>
+      <c r="R21">
+        <v>2820000</v>
+      </c>
+      <c r="S21">
+        <v>2820000</v>
+      </c>
+      <c r="T21">
+        <v>2820000</v>
+      </c>
+      <c r="U21">
+        <v>2820000</v>
+      </c>
+      <c r="V21">
+        <v>2820000</v>
+      </c>
+      <c r="W21">
+        <v>2820000</v>
+      </c>
+      <c r="X21">
+        <v>3537000</v>
+      </c>
+      <c r="Y21">
+        <v>4302000</v>
+      </c>
+      <c r="Z21">
+        <v>4408020</v>
+      </c>
+      <c r="AA21">
+        <v>4603020</v>
+      </c>
+      <c r="AB21">
+        <v>5523000</v>
+      </c>
+      <c r="AC21">
+        <v>5478000</v>
+      </c>
+      <c r="AD21">
+        <v>5500020</v>
+      </c>
+      <c r="AE21">
+        <v>5520000</v>
+      </c>
+      <c r="AF21">
+        <v>5700000</v>
+      </c>
+      <c r="AG21">
+        <v>76425060</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Arabica</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>90000</v>
+      </c>
+      <c r="D22">
+        <v>90000</v>
+      </c>
+      <c r="E22">
+        <v>85920</v>
+      </c>
+      <c r="F22">
+        <v>60000</v>
+      </c>
+      <c r="G22">
+        <v>90000</v>
+      </c>
+      <c r="H22">
+        <v>36000</v>
+      </c>
+      <c r="I22">
+        <v>60000</v>
+      </c>
+      <c r="J22">
+        <v>36000</v>
+      </c>
+      <c r="K22">
+        <v>36000</v>
+      </c>
+      <c r="L22">
+        <v>36000</v>
+      </c>
+      <c r="M22">
+        <v>36000</v>
+      </c>
+      <c r="N22">
+        <v>36000</v>
+      </c>
+      <c r="O22">
+        <v>36000</v>
+      </c>
+      <c r="P22">
+        <v>36000</v>
+      </c>
+      <c r="Q22">
+        <v>36000</v>
+      </c>
+      <c r="R22">
+        <v>36000</v>
+      </c>
+      <c r="S22">
+        <v>36000</v>
+      </c>
+      <c r="T22">
+        <v>60000</v>
+      </c>
+      <c r="U22">
+        <v>60000</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>991920</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Robusta/Arabica</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>4998000</v>
+      </c>
+      <c r="D23">
+        <v>4999980</v>
+      </c>
+      <c r="E23">
+        <v>4999980</v>
+      </c>
+      <c r="F23">
+        <v>6000000</v>
+      </c>
+      <c r="G23">
+        <v>6000000</v>
+      </c>
+      <c r="H23">
+        <v>6000000</v>
+      </c>
+      <c r="I23">
+        <v>6000000</v>
+      </c>
+      <c r="J23">
+        <v>6000000</v>
+      </c>
+      <c r="K23">
+        <v>6000000</v>
+      </c>
+      <c r="L23">
+        <v>6000000</v>
+      </c>
+      <c r="M23">
+        <v>4500000</v>
+      </c>
+      <c r="N23">
+        <v>4140000</v>
+      </c>
+      <c r="O23">
+        <v>4140000</v>
+      </c>
+      <c r="P23">
+        <v>4140000</v>
+      </c>
+      <c r="Q23">
+        <v>4140000</v>
+      </c>
+      <c r="R23">
+        <v>4140000</v>
+      </c>
+      <c r="S23">
+        <v>4140000</v>
+      </c>
+      <c r="T23">
+        <v>4140000</v>
+      </c>
+      <c r="U23">
+        <v>4140000</v>
+      </c>
+      <c r="V23">
+        <v>4140000</v>
+      </c>
+      <c r="W23">
+        <v>4099980</v>
+      </c>
+      <c r="X23">
+        <v>4201020</v>
+      </c>
+      <c r="Y23">
+        <v>4303980</v>
+      </c>
+      <c r="Z23">
+        <v>4408980</v>
+      </c>
+      <c r="AA23">
+        <v>4519020</v>
+      </c>
+      <c r="AB23">
+        <v>4560000</v>
+      </c>
+      <c r="AC23">
+        <v>4620000</v>
+      </c>
+      <c r="AD23">
+        <v>4680000</v>
+      </c>
+      <c r="AE23">
+        <v>4680000</v>
+      </c>
+      <c r="AF23">
+        <v>4620000</v>
+      </c>
+      <c r="AG23">
+        <v>143450940</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Central African Republic</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Robusta</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>1680000</v>
+      </c>
+      <c r="D24">
+        <v>1680000</v>
+      </c>
+      <c r="E24">
+        <v>1680000</v>
+      </c>
+      <c r="F24">
+        <v>1500000</v>
+      </c>
+      <c r="G24">
+        <v>900000</v>
+      </c>
+      <c r="H24">
+        <v>600000</v>
+      </c>
+      <c r="I24">
+        <v>600000</v>
+      </c>
+      <c r="J24">
+        <v>600000</v>
+      </c>
+      <c r="K24">
+        <v>1140000</v>
+      </c>
+      <c r="L24">
+        <v>1260000</v>
+      </c>
+      <c r="M24">
+        <v>180000</v>
+      </c>
+      <c r="N24">
+        <v>180000</v>
+      </c>
+      <c r="O24">
+        <v>227220</v>
+      </c>
+      <c r="P24">
+        <v>227220</v>
+      </c>
+      <c r="Q24">
+        <v>180000</v>
+      </c>
+      <c r="R24">
+        <v>180000</v>
+      </c>
+      <c r="S24">
+        <v>180000</v>
+      </c>
+      <c r="T24">
+        <v>199980</v>
+      </c>
+      <c r="U24">
+        <v>300000</v>
+      </c>
+      <c r="V24">
+        <v>499980</v>
+      </c>
+      <c r="W24">
+        <v>600000</v>
+      </c>
+      <c r="X24">
+        <v>799980</v>
+      </c>
+      <c r="Y24">
+        <v>1000020</v>
+      </c>
+      <c r="Z24">
+        <v>1200000</v>
+      </c>
+      <c r="AA24">
+        <v>1200000</v>
+      </c>
+      <c r="AB24">
+        <v>1200000</v>
+      </c>
+      <c r="AC24">
+        <v>1200000</v>
+      </c>
+      <c r="AD24">
+        <v>1200000</v>
+      </c>
+      <c r="AE24">
+        <v>1200000</v>
+      </c>
+      <c r="AF24">
+        <v>1200000</v>
+      </c>
+      <c r="AG24">
+        <v>24794400</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Arabica</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>74100000</v>
+      </c>
+      <c r="D25">
+        <v>76140000</v>
+      </c>
+      <c r="E25">
+        <v>78180000</v>
+      </c>
+      <c r="F25">
+        <v>80340000</v>
+      </c>
+      <c r="G25">
+        <v>82500000</v>
+      </c>
+      <c r="H25">
+        <v>81540000</v>
+      </c>
+      <c r="I25">
+        <v>80580000</v>
+      </c>
+      <c r="J25">
+        <v>79680000</v>
+      </c>
+      <c r="K25">
+        <v>78720000</v>
+      </c>
+      <c r="L25">
+        <v>77820000</v>
+      </c>
+      <c r="M25">
+        <v>76920000</v>
+      </c>
+      <c r="N25">
+        <v>76020000</v>
+      </c>
+      <c r="O25">
+        <v>75120000</v>
+      </c>
+      <c r="P25">
+        <v>74220000</v>
+      </c>
+      <c r="Q25">
+        <v>73380000</v>
+      </c>
+      <c r="R25">
+        <v>72540000</v>
+      </c>
+      <c r="S25">
+        <v>71677980</v>
+      </c>
+      <c r="T25">
+        <v>76855380</v>
+      </c>
+      <c r="U25">
+        <v>77430000</v>
+      </c>
+      <c r="V25">
+        <v>76468740</v>
+      </c>
+      <c r="W25">
+        <v>78661440</v>
+      </c>
+      <c r="X25">
+        <v>86103900</v>
+      </c>
+      <c r="Y25">
+        <v>90854520</v>
+      </c>
+      <c r="Z25">
+        <v>97021200</v>
+      </c>
+      <c r="AA25">
+        <v>99927060</v>
+      </c>
+      <c r="AB25">
+        <v>103222380</v>
+      </c>
+      <c r="AC25">
+        <v>104186484</v>
+      </c>
+      <c r="AD25">
+        <v>107596260</v>
+      </c>
+      <c r="AE25">
+        <v>107484600</v>
+      </c>
+      <c r="AF25">
+        <v>121486440</v>
+      </c>
+      <c r="AG25">
+        <v>2536776384</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Arabica</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>22500000</v>
+      </c>
+      <c r="D26">
+        <v>22500000</v>
+      </c>
+      <c r="E26">
+        <v>22500000</v>
+      </c>
+      <c r="F26">
+        <v>22500000</v>
+      </c>
+      <c r="G26">
+        <v>22500000</v>
+      </c>
+      <c r="H26">
+        <v>22500000</v>
+      </c>
+      <c r="I26">
+        <v>22500000</v>
+      </c>
+      <c r="J26">
+        <v>22500000</v>
+      </c>
+      <c r="K26">
+        <v>22500000</v>
+      </c>
+      <c r="L26">
+        <v>22500000</v>
+      </c>
+      <c r="M26">
+        <v>22500000</v>
+      </c>
+      <c r="N26">
+        <v>22500000</v>
+      </c>
+      <c r="O26">
+        <v>22500000</v>
+      </c>
+      <c r="P26">
+        <v>22500000</v>
+      </c>
+      <c r="Q26">
+        <v>22500000</v>
+      </c>
+      <c r="R26">
+        <v>22500000</v>
+      </c>
+      <c r="S26">
+        <v>22500000</v>
+      </c>
+      <c r="T26">
+        <v>22500000</v>
+      </c>
+      <c r="U26">
+        <v>16071540</v>
+      </c>
+      <c r="V26">
+        <v>17726460</v>
+      </c>
+      <c r="W26">
+        <v>24433260</v>
+      </c>
+      <c r="X26">
+        <v>22853280</v>
+      </c>
+      <c r="Y26">
+        <v>25385820</v>
+      </c>
+      <c r="Z26">
+        <v>20103600</v>
+      </c>
+      <c r="AA26">
+        <v>22844520</v>
+      </c>
+      <c r="AB26">
+        <v>26929260</v>
+      </c>
+      <c r="AC26">
+        <v>19767420</v>
+      </c>
+      <c r="AD26">
+        <v>21200040</v>
+      </c>
+      <c r="AE26">
+        <v>21900000</v>
+      </c>
+      <c r="AF26">
+        <v>21120000</v>
+      </c>
+      <c r="AG26">
+        <v>665335200</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C√¥te d'Ivoire</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Robusta</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>3000000</v>
+      </c>
+      <c r="D27">
+        <v>3000000</v>
+      </c>
+      <c r="E27">
+        <v>3000000</v>
+      </c>
+      <c r="F27">
+        <v>3000000</v>
+      </c>
+      <c r="G27">
+        <v>3000000</v>
+      </c>
+      <c r="H27">
+        <v>3000000</v>
+      </c>
+      <c r="I27">
+        <v>3000000</v>
+      </c>
+      <c r="J27">
+        <v>3000000</v>
+      </c>
+      <c r="K27">
+        <v>3000000</v>
+      </c>
+      <c r="L27">
+        <v>3000000</v>
+      </c>
+      <c r="M27">
+        <v>19000020</v>
+      </c>
+      <c r="N27">
+        <v>19000020</v>
+      </c>
+      <c r="O27">
+        <v>19000020</v>
+      </c>
+      <c r="P27">
+        <v>19000020</v>
+      </c>
+      <c r="Q27">
+        <v>19000020</v>
+      </c>
+      <c r="R27">
+        <v>19000020</v>
+      </c>
+      <c r="S27">
+        <v>19000020</v>
+      </c>
+      <c r="T27">
+        <v>19020000</v>
+      </c>
+      <c r="U27">
+        <v>19020000</v>
+      </c>
+      <c r="V27">
+        <v>19020000</v>
+      </c>
+      <c r="W27">
+        <v>19020000</v>
+      </c>
+      <c r="X27">
+        <v>19020000</v>
+      </c>
+      <c r="Y27">
+        <v>19020000</v>
+      </c>
+      <c r="Z27">
+        <v>19020000</v>
+      </c>
+      <c r="AA27">
+        <v>19020000</v>
+      </c>
+      <c r="AB27">
+        <v>19020000</v>
+      </c>
+      <c r="AC27">
+        <v>19020000</v>
+      </c>
+      <c r="AD27">
+        <v>19020000</v>
+      </c>
+      <c r="AE27">
+        <v>19020000</v>
+      </c>
+      <c r="AF27">
+        <v>19020000</v>
+      </c>
+      <c r="AG27">
+        <v>410260140</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Democratic Republic of Congo</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Robusta/Arabica</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>12000000</v>
+      </c>
+      <c r="D28">
+        <v>12000000</v>
+      </c>
+      <c r="E28">
+        <v>12000000</v>
+      </c>
+      <c r="F28">
+        <v>12000000</v>
+      </c>
+      <c r="G28">
+        <v>12000000</v>
+      </c>
+      <c r="H28">
+        <v>12000000</v>
+      </c>
+      <c r="I28">
+        <v>12000000</v>
+      </c>
+      <c r="J28">
+        <v>12000000</v>
+      </c>
+      <c r="K28">
+        <v>12000000</v>
+      </c>
+      <c r="L28">
+        <v>12000000</v>
+      </c>
+      <c r="M28">
+        <v>12000000</v>
+      </c>
+      <c r="N28">
+        <v>12000000</v>
+      </c>
+      <c r="O28">
+        <v>12000000</v>
+      </c>
+      <c r="P28">
+        <v>12000000</v>
+      </c>
+      <c r="Q28">
+        <v>12000000</v>
+      </c>
+      <c r="R28">
+        <v>12000000</v>
+      </c>
+      <c r="S28">
+        <v>12000000</v>
+      </c>
+      <c r="T28">
+        <v>12000000</v>
+      </c>
+      <c r="U28">
+        <v>12000000</v>
+      </c>
+      <c r="V28">
+        <v>12000000</v>
+      </c>
+      <c r="W28">
+        <v>12000000</v>
+      </c>
+      <c r="X28">
+        <v>12000000</v>
+      </c>
+      <c r="Y28">
+        <v>12000000</v>
+      </c>
+      <c r="Z28">
+        <v>12000000</v>
+      </c>
+      <c r="AA28">
+        <v>12000000</v>
+      </c>
+      <c r="AB28">
+        <v>12000000</v>
+      </c>
+      <c r="AC28">
+        <v>12000000</v>
+      </c>
+      <c r="AD28">
+        <v>12000000</v>
+      </c>
+      <c r="AE28">
+        <v>12000000</v>
+      </c>
+      <c r="AF28">
+        <v>11880000</v>
+      </c>
+      <c r="AG28">
+        <v>359880000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Arabica</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>10800000</v>
+      </c>
+      <c r="D29">
+        <v>10800000</v>
+      </c>
+      <c r="E29">
+        <v>13800000</v>
+      </c>
+      <c r="F29">
+        <v>13800000</v>
+      </c>
+      <c r="G29">
+        <v>13800000</v>
+      </c>
+      <c r="H29">
+        <v>16200000</v>
+      </c>
+      <c r="I29">
+        <v>13800000</v>
+      </c>
+      <c r="J29">
+        <v>11500020</v>
+      </c>
+      <c r="K29">
+        <v>11500020</v>
+      </c>
+      <c r="L29">
+        <v>9198000</v>
+      </c>
+      <c r="M29">
+        <v>8640000</v>
+      </c>
+      <c r="N29">
+        <v>9198000</v>
+      </c>
+      <c r="O29">
+        <v>9198000</v>
+      </c>
+      <c r="P29">
+        <v>9198000</v>
+      </c>
+      <c r="Q29">
+        <v>10350000</v>
+      </c>
+      <c r="R29">
+        <v>13446000</v>
+      </c>
+      <c r="S29">
+        <v>15228000</v>
+      </c>
+      <c r="T29">
+        <v>15030000</v>
+      </c>
+      <c r="U29">
+        <v>14658000</v>
+      </c>
+      <c r="V29">
+        <v>16098000</v>
+      </c>
+      <c r="W29">
+        <v>16560000</v>
+      </c>
+      <c r="X29">
+        <v>16404000</v>
+      </c>
+      <c r="Y29">
+        <v>16596000</v>
+      </c>
+      <c r="Z29">
+        <v>16500000</v>
+      </c>
+      <c r="AA29">
+        <v>16800000</v>
+      </c>
+      <c r="AB29">
+        <v>17100000</v>
+      </c>
+      <c r="AC29">
+        <v>17520000</v>
+      </c>
+      <c r="AD29">
+        <v>18000000</v>
+      </c>
+      <c r="AE29">
+        <v>18000000</v>
+      </c>
+      <c r="AF29">
+        <v>17520000</v>
+      </c>
+      <c r="AG29">
+        <v>417242040</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Equatorial Guinea</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Robusta</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ethiopia</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Arabica</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>72000000</v>
+      </c>
+      <c r="D31">
+        <v>75840000</v>
+      </c>
+      <c r="E31">
+        <v>79860000</v>
+      </c>
+      <c r="F31">
+        <v>84120000</v>
+      </c>
+      <c r="G31">
+        <v>88560000</v>
+      </c>
+      <c r="H31">
+        <v>93300000</v>
+      </c>
+      <c r="I31">
+        <v>98220000</v>
+      </c>
+      <c r="J31">
+        <v>103440000</v>
+      </c>
+      <c r="K31">
+        <v>108960000</v>
+      </c>
+      <c r="L31">
+        <v>114720000</v>
+      </c>
+      <c r="M31">
+        <v>120840000</v>
+      </c>
+      <c r="N31">
+        <v>127260000</v>
+      </c>
+      <c r="O31">
+        <v>134040000</v>
+      </c>
+      <c r="P31">
+        <v>141180000</v>
+      </c>
+      <c r="Q31">
+        <v>148680000</v>
+      </c>
+      <c r="R31">
+        <v>156540000</v>
+      </c>
+      <c r="S31">
+        <v>164880000</v>
+      </c>
+      <c r="T31">
+        <v>173640000</v>
+      </c>
+      <c r="U31">
+        <v>182880000</v>
+      </c>
+      <c r="V31">
+        <v>186540000</v>
+      </c>
+      <c r="W31">
+        <v>190260000</v>
+      </c>
+      <c r="X31">
+        <v>194100000</v>
+      </c>
+      <c r="Y31">
+        <v>197940000</v>
+      </c>
+      <c r="Z31">
+        <v>201900000</v>
+      </c>
+      <c r="AA31">
+        <v>205980000</v>
+      </c>
+      <c r="AB31">
+        <v>210060000</v>
+      </c>
+      <c r="AC31">
+        <v>214260000</v>
+      </c>
+      <c r="AD31">
+        <v>218580000</v>
+      </c>
+      <c r="AE31">
+        <v>221100000</v>
+      </c>
+      <c r="AF31">
+        <v>226860000</v>
+      </c>
+      <c r="AG31">
+        <v>4536540000</v>
       </c>
     </row>
   </sheetData>
